--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/75/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/75/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2362362362362362</v>
+        <v>0.207020702070207</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1117.117117117117</v>
+        <v>1465.286528652865</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02542542542542543</v>
+        <v>0.07513751375137515</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5735735735735735</v>
+        <v>0.2945294529452945</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1609.60960960961</v>
+        <v>1739.483948394839</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.1051051051051</v>
+        <v>503.6003600360036</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.1801801801802</v>
+        <v>464.6822682268227</v>
       </c>
     </row>
   </sheetData>
